--- a/Test cases - ISBN Number.xlsx
+++ b/Test cases - ISBN Number.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khush\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6132e5c809c6ff73/Desktop/ISBN Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95867E70-782B-46BF-ABEE-AF782ECAF5E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{95867E70-782B-46BF-ABEE-AF782ECAF5E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4A95AA2-28DC-4539-86FF-0C9741A27427}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="95">
   <si>
     <t>Test Case Template for Project</t>
   </si>
@@ -355,6 +355,9 @@
     &lt;/soap:Body&gt;
 &lt;/soap:Envelope&gt;</t>
   </si>
+  <si>
+    <t>TC017</t>
+  </si>
 </sst>
 </file>
 
@@ -680,10 +683,6 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -697,16 +696,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -746,6 +744,13 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="17" fontId="15" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1301,17 +1306,17 @@
     <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="29"/>
+      <c r="D1" s="57"/>
       <c r="E1" s="2"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="54"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="51"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
     </row>
@@ -1321,16 +1326,16 @@
       <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="45" t="s">
         <v>88</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="51"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
     </row>
@@ -1345,11 +1350,11 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="54"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="51"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
@@ -1364,11 +1369,11 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="51"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
     </row>
@@ -1383,11 +1388,11 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="54"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="51"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
@@ -1400,11 +1405,11 @@
       <c r="D6" s="4"/>
       <c r="E6" s="2"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="54"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="51"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
     </row>
@@ -1417,11 +1422,11 @@
       <c r="D7" s="7"/>
       <c r="E7" s="2"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="54"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="51"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
     </row>
@@ -1432,11 +1437,11 @@
       <c r="D8" s="1"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="54"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="51"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
     </row>
@@ -1447,65 +1452,65 @@
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="54"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="51"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="49" t="s">
+      <c r="D10" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="49" t="s">
+      <c r="E10" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="49" t="s">
+      <c r="F10" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="51">
+      <c r="D11" s="48">
         <v>16</v>
       </c>
-      <c r="E11" s="51" t="s">
+      <c r="E11" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="51" t="s">
+      <c r="F11" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
     </row>
@@ -1516,11 +1521,11 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
@@ -1531,11 +1536,11 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
@@ -16258,46 +16263,46 @@
   <dimension ref="A1:P228"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="34.88671875" defaultRowHeight="41.4" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:16" ht="41.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="I1" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="36"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="34"/>
     </row>
     <row r="2" spans="1:16" ht="41.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="18" t="s">
@@ -16321,24 +16326,24 @@
       <c r="G2" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="I2" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="38"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="36"/>
     </row>
     <row r="3" spans="1:16" ht="41.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="40" t="s">
         <v>86</v>
       </c>
       <c r="C3" s="24" t="s">
@@ -16356,24 +16361,24 @@
       <c r="G3" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="47" t="s">
+      <c r="I3" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="38"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="36"/>
     </row>
     <row r="4" spans="1:16" s="26" customFormat="1" ht="41.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="42" t="s">
         <v>71</v>
       </c>
       <c r="C4" s="27" t="s">
@@ -16388,28 +16393,28 @@
       <c r="F4" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="46" t="s">
+      <c r="G4" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="H4" s="41" t="s">
+      <c r="H4" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="47" t="s">
+      <c r="I4" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="34"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="32"/>
     </row>
     <row r="5" spans="1:16" ht="41.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="41" t="s">
         <v>63</v>
       </c>
       <c r="C5" s="27" t="s">
@@ -16424,27 +16429,27 @@
       <c r="F5" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="46" t="s">
+      <c r="G5" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="H5" s="41" t="s">
+      <c r="H5" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="47" t="s">
+      <c r="I5" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
     </row>
     <row r="6" spans="1:16" ht="41.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="41" t="s">
         <v>26</v>
       </c>
       <c r="C6" s="27" t="s">
@@ -16459,27 +16464,27 @@
       <c r="F6" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="46" t="s">
+      <c r="G6" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="H6" s="41" t="s">
+      <c r="H6" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="47" t="s">
+      <c r="I6" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
     </row>
     <row r="7" spans="1:16" ht="41.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="30">
+      <c r="B7" s="28">
         <v>0</v>
       </c>
       <c r="C7" s="21" t="s">
@@ -16494,21 +16499,21 @@
       <c r="F7" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="46" t="s">
+      <c r="G7" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="H7" s="41" t="s">
+      <c r="H7" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="47" t="s">
+      <c r="I7" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
     </row>
     <row r="8" spans="1:16" ht="41.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="22" t="s">
@@ -16529,21 +16534,21 @@
       <c r="F8" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="46" t="s">
+      <c r="G8" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="H8" s="41" t="s">
+      <c r="H8" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="47" t="s">
+      <c r="I8" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
     </row>
     <row r="9" spans="1:16" ht="41.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="22" t="s">
@@ -16564,13 +16569,13 @@
       <c r="F9" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="46" t="s">
+      <c r="G9" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="H9" s="41" t="s">
+      <c r="H9" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="47" t="s">
+      <c r="I9" s="44" t="s">
         <v>42</v>
       </c>
       <c r="J9" s="14"/>
@@ -16599,13 +16604,13 @@
       <c r="F10" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="G10" s="46" t="s">
+      <c r="G10" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="H10" s="41" t="s">
+      <c r="H10" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="47" t="s">
+      <c r="I10" s="44" t="s">
         <v>42</v>
       </c>
       <c r="J10" s="14"/>
@@ -16619,7 +16624,7 @@
       <c r="A11" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="30">
+      <c r="B11" s="28">
         <v>12.45</v>
       </c>
       <c r="C11" s="27" t="s">
@@ -16634,13 +16639,13 @@
       <c r="F11" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="46" t="s">
+      <c r="G11" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="H11" s="41" t="s">
+      <c r="H11" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="47" t="s">
+      <c r="I11" s="44" t="s">
         <v>42</v>
       </c>
       <c r="J11" s="14"/>
@@ -16654,7 +16659,7 @@
       <c r="A12" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="41" t="s">
         <v>87</v>
       </c>
       <c r="C12" s="27" t="s">
@@ -16669,13 +16674,13 @@
       <c r="F12" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="G12" s="46" t="s">
+      <c r="G12" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="H12" s="41" t="s">
+      <c r="H12" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="47" t="s">
+      <c r="I12" s="44" t="s">
         <v>42</v>
       </c>
       <c r="J12" s="14"/>
@@ -16689,7 +16694,7 @@
       <c r="A13" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="28" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="27" t="s">
@@ -16704,13 +16709,13 @@
       <c r="F13" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="G13" s="46" t="s">
+      <c r="G13" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="H13" s="41" t="s">
+      <c r="H13" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="47" t="s">
+      <c r="I13" s="44" t="s">
         <v>42</v>
       </c>
       <c r="J13" s="14"/>
@@ -16739,13 +16744,13 @@
       <c r="F14" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="G14" s="46" t="s">
+      <c r="G14" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="H14" s="41" t="s">
+      <c r="H14" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="47" t="s">
+      <c r="I14" s="44" t="s">
         <v>42</v>
       </c>
       <c r="J14" s="14"/>
@@ -16762,7 +16767,7 @@
       <c r="B15" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="58" t="s">
+      <c r="C15" s="55" t="s">
         <v>82</v>
       </c>
       <c r="D15" s="27" t="s">
@@ -16774,13 +16779,13 @@
       <c r="F15" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="G15" s="46" t="s">
+      <c r="G15" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="H15" s="41" t="s">
+      <c r="H15" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="47" t="s">
+      <c r="I15" s="44" t="s">
         <v>42</v>
       </c>
       <c r="J15" s="14"/>
@@ -16797,7 +16802,7 @@
       <c r="B16" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="58" t="s">
+      <c r="C16" s="55" t="s">
         <v>83</v>
       </c>
       <c r="D16" s="27" t="s">
@@ -16809,13 +16814,13 @@
       <c r="F16" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="G16" s="46" t="s">
+      <c r="G16" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="H16" s="41" t="s">
+      <c r="H16" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="I16" s="47" t="s">
+      <c r="I16" s="44" t="s">
         <v>42</v>
       </c>
       <c r="J16" s="14"/>
@@ -16829,7 +16834,7 @@
       <c r="A17" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="42" t="s">
         <v>91</v>
       </c>
       <c r="C17" s="27" t="s">
@@ -16844,13 +16849,13 @@
       <c r="F17" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="G17" s="58" t="s">
+      <c r="G17" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="H17" s="41" t="s">
+      <c r="H17" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="I17" s="47" t="s">
+      <c r="I17" s="44" t="s">
         <v>42</v>
       </c>
       <c r="J17" s="14"/>
@@ -16861,10 +16866,18 @@
       <c r="O17" s="14"/>
     </row>
     <row r="18" spans="1:15" ht="41.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="14"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
+      <c r="A18" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" s="58">
+        <v>20455</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>48</v>
+      </c>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="G18" s="16"/>
